--- a/v0.2/code/RaBIDS templates/datasheet.xlsx
+++ b/v0.2/code/RaBIDS templates/datasheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\share\RaBIDS\tutorials\tutorial supportive data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\share\RaBIDS\v0.2\code\RaBIDS templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="71">
   <si>
     <t>SPM</t>
   </si>
@@ -75,9 +75,6 @@
     <t>overwrite existing session directory</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
     <t>overwrite import</t>
   </si>
   <si>
@@ -100,15 +97,6 @@
   </si>
   <si>
     <t>overwrite existing sots files (…multicond.mat)</t>
-  </si>
-  <si>
-    <t>overwrite preprocess</t>
-  </si>
-  <si>
-    <t>overwrite derivatives</t>
-  </si>
-  <si>
-    <t>overwrite firstlevel</t>
   </si>
   <si>
     <t>dicoms</t>
@@ -595,10 +583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:XFD35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -612,22 +600,22 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -647,7 +635,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -667,7 +655,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -675,10 +663,10 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -692,10 +680,10 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -709,10 +697,10 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -721,18 +709,18 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -741,41 +729,41 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
         <v>63</v>
-      </c>
-      <c r="B8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F10" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
@@ -789,7 +777,7 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
@@ -808,30 +796,30 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D15" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E15" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F15" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
@@ -839,27 +827,27 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
         <v>7</v>
       </c>
       <c r="D17" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F17" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
@@ -867,24 +855,24 @@
         <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D19" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
@@ -892,24 +880,24 @@
         <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D21" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C22" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
@@ -920,32 +908,32 @@
         <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F24" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B26" t="s">
         <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F26" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" t="s">
         <v>23</v>
-      </c>
-      <c r="B27" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
@@ -953,7 +941,7 @@
         <v>13</v>
       </c>
       <c r="B29" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C29" t="s">
         <v>3</v>
@@ -962,15 +950,15 @@
         <v>5</v>
       </c>
       <c r="F29" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C31" t="s">
         <v>3</v>
@@ -978,7 +966,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B32" t="s">
         <v>17</v>
@@ -987,40 +975,18 @@
         <v>3</v>
       </c>
       <c r="F32" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" t="s">
         <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
       </c>
       <c r="C33" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>27</v>
-      </c>
-      <c r="B34" t="s">
-        <v>28</v>
-      </c>
-      <c r="C34" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>29</v>
-      </c>
-      <c r="B35" t="s">
-        <v>28</v>
-      </c>
-      <c r="C35" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
